--- a/Sample_ECSC_N.xlsx
+++ b/Sample_ECSC_N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plmnx-my.sharepoint.com/personal/vbhati_pulmonx_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{828685BB-0C74-4BBB-888F-F24468531C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D7B7AF4-3BE7-4699-B16D-4E2BA28BFB30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118D086-FBDD-4684-85B3-FD9058E2FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="3210" windowWidth="19290" windowHeight="11085" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9503BF40-06F6-4912-9146-D582181AD3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Male</t>
   </si>
@@ -59,16 +59,22 @@
     <t>Height</t>
   </si>
   <si>
-    <t>FEV1</t>
-  </si>
-  <si>
-    <t>FVC</t>
-  </si>
-  <si>
     <t>Race</t>
   </si>
   <si>
     <t>Unique ID</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>FEV1 (L)</t>
+  </si>
+  <si>
+    <t>FVC (L)</t>
   </si>
 </sst>
 </file>
@@ -455,20 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C77C1A9-F52F-405B-B6A1-CB8E83B2C287}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -480,16 +488,19 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>61</v>
       </c>
@@ -509,83 +520,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F3" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>160</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>188</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>190</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Sample_ECSC_N.xlsx
+++ b/Sample_ECSC_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plmnx-my.sharepoint.com/personal/vbhati_pulmonx_com/Documents/Pictures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118D086-FBDD-4684-85B3-FD9058E2FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
